--- a/PP/course/тест 3 часть.xlsx
+++ b/PP/course/тест 3 часть.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1459,11 +1459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182028224"/>
-        <c:axId val="182051704"/>
+        <c:axId val="179702712"/>
+        <c:axId val="180074776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182028224"/>
+        <c:axId val="179702712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1517,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182051704"/>
+        <c:crossAx val="180074776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1527,7 +1527,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182051704"/>
+        <c:axId val="180074776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="104"/>
@@ -1582,7 +1582,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182028224"/>
+        <c:crossAx val="179702712"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1827,11 +1827,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202899416"/>
-        <c:axId val="202899808"/>
+        <c:axId val="201346040"/>
+        <c:axId val="201346432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202899416"/>
+        <c:axId val="201346040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +1887,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202899808"/>
+        <c:crossAx val="201346432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1896,7 +1896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202899808"/>
+        <c:axId val="201346432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1953,7 +1953,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202899416"/>
+        <c:crossAx val="201346040"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2149,11 +2149,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202900592"/>
-        <c:axId val="202900984"/>
+        <c:axId val="179059608"/>
+        <c:axId val="179060000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202900592"/>
+        <c:axId val="179059608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2209,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202900984"/>
+        <c:crossAx val="179060000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2218,7 +2218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202900984"/>
+        <c:axId val="179060000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2275,7 +2275,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202900592"/>
+        <c:crossAx val="179059608"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2548,11 +2548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202901768"/>
-        <c:axId val="202902160"/>
+        <c:axId val="179060784"/>
+        <c:axId val="202256344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="202901768"/>
+        <c:axId val="179060784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2605,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202902160"/>
+        <c:crossAx val="202256344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2613,7 +2613,7 @@
         <c:majorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="202902160"/>
+        <c:axId val="202256344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="104"/>
@@ -2669,7 +2669,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202901768"/>
+        <c:crossAx val="179060784"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3473,11 +3473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181531696"/>
-        <c:axId val="181540272"/>
+        <c:axId val="201657928"/>
+        <c:axId val="180274688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181531696"/>
+        <c:axId val="201657928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,7 +3531,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181540272"/>
+        <c:crossAx val="180274688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3540,7 +3540,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181540272"/>
+        <c:axId val="180274688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +3593,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181531696"/>
+        <c:crossAx val="201657928"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -4330,11 +4330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210412592"/>
-        <c:axId val="210412984"/>
+        <c:axId val="178702704"/>
+        <c:axId val="179295976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="210412592"/>
+        <c:axId val="178702704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4391,7 +4391,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210412984"/>
+        <c:crossAx val="179295976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="0"/>
@@ -4399,7 +4399,7 @@
         <c:majorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="210412984"/>
+        <c:axId val="179295976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4455,7 +4455,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210412592"/>
+        <c:crossAx val="178702704"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -4763,11 +4763,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181612384"/>
-        <c:axId val="181623744"/>
+        <c:axId val="177657128"/>
+        <c:axId val="177657520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="181612384"/>
+        <c:axId val="177657128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4822,7 +4822,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181623744"/>
+        <c:crossAx val="177657520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -4830,7 +4830,7 @@
         <c:majorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181623744"/>
+        <c:axId val="177657520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4886,7 +4886,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181612384"/>
+        <c:crossAx val="177657128"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5065,11 +5065,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180221352"/>
-        <c:axId val="180221744"/>
+        <c:axId val="177659872"/>
+        <c:axId val="177660264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="180221352"/>
+        <c:axId val="177659872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5124,7 +5124,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180221744"/>
+        <c:crossAx val="177660264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5132,7 +5132,7 @@
         <c:majorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180221744"/>
+        <c:axId val="177660264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="104"/>
@@ -5190,7 +5190,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180221352"/>
+        <c:crossAx val="177659872"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -5372,11 +5372,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180222528"/>
-        <c:axId val="180222920"/>
+        <c:axId val="177659480"/>
+        <c:axId val="177659088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="180222528"/>
+        <c:axId val="177659480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5431,7 +5431,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180222920"/>
+        <c:crossAx val="177659088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5439,7 +5439,7 @@
         <c:majorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180222920"/>
+        <c:axId val="177659088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="104"/>
@@ -5497,7 +5497,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180222528"/>
+        <c:crossAx val="177659480"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -5712,11 +5712,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180223704"/>
-        <c:axId val="180224096"/>
+        <c:axId val="177658304"/>
+        <c:axId val="201343296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="180223704"/>
+        <c:axId val="177658304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5771,7 +5771,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180224096"/>
+        <c:crossAx val="201343296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5779,7 +5779,7 @@
         <c:majorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180224096"/>
+        <c:axId val="201343296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="104"/>
@@ -5837,7 +5837,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180223704"/>
+        <c:crossAx val="177658304"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -6118,11 +6118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180224880"/>
-        <c:axId val="180225272"/>
+        <c:axId val="201342904"/>
+        <c:axId val="201344080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180224880"/>
+        <c:axId val="201342904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6175,7 +6175,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180225272"/>
+        <c:crossAx val="201344080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6184,7 +6184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180225272"/>
+        <c:axId val="201344080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6238,7 +6238,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180224880"/>
+        <c:crossAx val="201342904"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -6438,11 +6438,11 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180220960"/>
-        <c:axId val="202898632"/>
+        <c:axId val="201344864"/>
+        <c:axId val="201345256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180220960"/>
+        <c:axId val="201344864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6498,7 +6498,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202898632"/>
+        <c:crossAx val="201345256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6507,7 +6507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202898632"/>
+        <c:axId val="201345256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6564,7 +6564,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180220960"/>
+        <c:crossAx val="201344864"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -14461,7 +14461,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Коефіцієнт ефективності </a:t>
+            <a:t>Час роботи програми </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400">
@@ -14470,7 +14470,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>K</a:t>
+            <a:t>t</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="-25000">
@@ -14479,7 +14479,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>e,</a:t>
+            <a:t>,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0">
@@ -14488,7 +14488,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> %</a:t>
+            <a:t> c</a:t>
           </a:r>
           <a:endParaRPr lang="uk-UA" sz="1400">
             <a:effectLst/>
@@ -15810,8 +15810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
